--- a/ProjectPlan.xlsx
+++ b/ProjectPlan.xlsx
@@ -5,17 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SandersLP\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CAPSTONE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{829CEEAB-EAEF-4317-A90D-C2C687BDC695}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E8B1F03-96E1-4E7E-A199-39A1F109F929}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1A627384-B3A2-4E78-84FE-BA87618B40F6}"/>
+    <workbookView xWindow="4680" yWindow="1905" windowWidth="21600" windowHeight="11385" xr2:uid="{1A627384-B3A2-4E78-84FE-BA87618B40F6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -253,9 +254,6 @@
     <t>2x 21-Feb</t>
   </si>
   <si>
-    <t>2x 28-Feb</t>
-  </si>
-  <si>
     <t>1x 6-Mar</t>
   </si>
   <si>
@@ -289,6 +287,9 @@
   </si>
   <si>
     <t>1x 27-Mar</t>
+  </si>
+  <si>
+    <t>2x 14-Feb</t>
   </si>
 </sst>
 </file>
@@ -459,7 +460,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -517,9 +518,6 @@
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="16" fontId="2" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="16" fontId="1" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -864,10 +862,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DECBD913-FE52-419E-A224-F5DD87C435A3}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:N57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G49" sqref="G49"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="J46" sqref="J46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -884,7 +885,7 @@
   <sheetData>
     <row r="1" spans="1:14" ht="60" x14ac:dyDescent="0.25">
       <c r="A1" s="25" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -923,7 +924,7 @@
         <v>61</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
@@ -1049,7 +1050,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="6"/>
-      <c r="C8" s="35">
+      <c r="C8" s="34">
         <v>43866</v>
       </c>
       <c r="D8" s="7"/>
@@ -1129,7 +1130,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="6"/>
-      <c r="C12" s="31">
+      <c r="C12" s="28">
         <v>43869</v>
       </c>
       <c r="D12" s="7"/>
@@ -1256,7 +1257,7 @@
     </row>
     <row r="18" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B18" s="14"/>
       <c r="C18" s="14"/>
@@ -1276,7 +1277,7 @@
     </row>
     <row r="19" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B19" s="14"/>
       <c r="C19" s="14"/>
@@ -1318,7 +1319,9 @@
       </c>
       <c r="B21" s="7"/>
       <c r="C21" s="19"/>
-      <c r="D21" s="19"/>
+      <c r="D21" s="20">
+        <v>43875</v>
+      </c>
       <c r="E21" s="19"/>
       <c r="F21" s="5"/>
       <c r="G21" s="5"/>
@@ -1356,14 +1359,14 @@
       </c>
       <c r="B23" s="7"/>
       <c r="C23" s="19"/>
-      <c r="D23" s="34" t="s">
+      <c r="D23" s="33" t="s">
+        <v>76</v>
+      </c>
+      <c r="E23" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="E23" s="23" t="s">
-        <v>66</v>
-      </c>
       <c r="F23" s="24" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H23" s="5"/>
       <c r="I23" s="5"/>
@@ -1401,13 +1404,13 @@
       <c r="C25" s="19"/>
       <c r="D25" s="19"/>
       <c r="E25" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="F25" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="F25" s="23" t="s">
-        <v>69</v>
-      </c>
       <c r="G25" s="22" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H25" s="5"/>
       <c r="I25" s="5"/>
@@ -1441,7 +1444,7 @@
       </c>
       <c r="B27" s="7"/>
       <c r="C27" s="19"/>
-      <c r="D27" s="32">
+      <c r="D27" s="31">
         <v>43875</v>
       </c>
       <c r="E27" s="20">
@@ -1451,7 +1454,7 @@
         <v>43889</v>
       </c>
       <c r="G27" s="5"/>
-      <c r="H27" s="32">
+      <c r="H27" s="31">
         <v>43903</v>
       </c>
       <c r="I27" s="20">
@@ -1460,7 +1463,7 @@
       <c r="J27" s="21">
         <v>43917</v>
       </c>
-      <c r="K27" s="32">
+      <c r="K27" s="31">
         <v>43924</v>
       </c>
       <c r="L27" s="20">
@@ -1476,11 +1479,11 @@
         <v>20</v>
       </c>
       <c r="B28" s="7"/>
-      <c r="C28" s="33"/>
+      <c r="C28" s="32"/>
       <c r="D28" s="21">
         <v>43875</v>
       </c>
-      <c r="E28" s="32">
+      <c r="E28" s="31">
         <v>43882</v>
       </c>
       <c r="F28" s="20">
@@ -1490,7 +1493,7 @@
       <c r="H28" s="21">
         <v>43903</v>
       </c>
-      <c r="I28" s="32">
+      <c r="I28" s="31">
         <v>43910</v>
       </c>
       <c r="J28" s="20">
@@ -1499,7 +1502,7 @@
       <c r="K28" s="21">
         <v>43924</v>
       </c>
-      <c r="L28" s="32">
+      <c r="L28" s="31">
         <v>43931</v>
       </c>
       <c r="M28" s="20">
@@ -1515,7 +1518,9 @@
       <c r="C29" s="19"/>
       <c r="D29" s="19"/>
       <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
+      <c r="F29" s="21">
+        <v>43889</v>
+      </c>
       <c r="G29" s="5"/>
       <c r="H29" s="5"/>
       <c r="I29" s="5"/>
@@ -1533,7 +1538,9 @@
       <c r="C30" s="19"/>
       <c r="D30" s="19"/>
       <c r="E30" s="5"/>
-      <c r="F30" s="5"/>
+      <c r="F30" s="20">
+        <v>43889</v>
+      </c>
       <c r="G30" s="5"/>
       <c r="H30" s="5"/>
       <c r="I30" s="5"/>
@@ -1566,124 +1573,124 @@
         <v>24</v>
       </c>
       <c r="B32" s="7"/>
-      <c r="C32" s="36"/>
-      <c r="D32" s="36"/>
-      <c r="E32" s="38">
+      <c r="C32" s="35"/>
+      <c r="D32" s="35"/>
+      <c r="E32" s="37">
         <v>43882</v>
       </c>
-      <c r="F32" s="36"/>
-      <c r="G32" s="36"/>
-      <c r="H32" s="36"/>
-      <c r="I32" s="36"/>
-      <c r="J32" s="36"/>
-      <c r="K32" s="36"/>
-      <c r="L32" s="36"/>
-      <c r="M32" s="36"/>
-      <c r="N32" s="36"/>
+      <c r="F32" s="35"/>
+      <c r="G32" s="35"/>
+      <c r="H32" s="35"/>
+      <c r="I32" s="35"/>
+      <c r="J32" s="35"/>
+      <c r="K32" s="35"/>
+      <c r="L32" s="35"/>
+      <c r="M32" s="35"/>
+      <c r="N32" s="35"/>
     </row>
     <row r="33" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
         <v>25</v>
       </c>
       <c r="B33" s="7"/>
-      <c r="C33" s="36"/>
-      <c r="D33" s="36"/>
-      <c r="E33" s="36"/>
-      <c r="F33" s="36"/>
-      <c r="G33" s="36"/>
-      <c r="H33" s="40" t="s">
-        <v>73</v>
-      </c>
-      <c r="I33" s="41" t="s">
+      <c r="C33" s="35"/>
+      <c r="D33" s="35"/>
+      <c r="E33" s="35"/>
+      <c r="F33" s="35"/>
+      <c r="G33" s="35"/>
+      <c r="H33" s="39" t="s">
+        <v>72</v>
+      </c>
+      <c r="I33" s="40" t="s">
+        <v>74</v>
+      </c>
+      <c r="J33" s="41" t="s">
         <v>75</v>
       </c>
-      <c r="J33" s="42" t="s">
-        <v>76</v>
-      </c>
-      <c r="K33" s="36"/>
-      <c r="L33" s="36"/>
-      <c r="M33" s="36"/>
-      <c r="N33" s="36"/>
+      <c r="K33" s="35"/>
+      <c r="L33" s="35"/>
+      <c r="M33" s="35"/>
+      <c r="N33" s="35"/>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
         <v>26</v>
       </c>
       <c r="B34" s="7"/>
-      <c r="C34" s="36"/>
-      <c r="D34" s="36"/>
-      <c r="E34" s="36"/>
-      <c r="F34" s="36"/>
-      <c r="G34" s="36"/>
-      <c r="H34" s="38">
+      <c r="C34" s="35"/>
+      <c r="D34" s="35"/>
+      <c r="E34" s="35"/>
+      <c r="F34" s="35"/>
+      <c r="G34" s="35"/>
+      <c r="H34" s="37">
         <v>43903</v>
       </c>
-      <c r="I34" s="36"/>
-      <c r="J34" s="36"/>
-      <c r="K34" s="36"/>
-      <c r="L34" s="36"/>
-      <c r="M34" s="36"/>
-      <c r="N34" s="36"/>
+      <c r="I34" s="35"/>
+      <c r="J34" s="35"/>
+      <c r="K34" s="35"/>
+      <c r="L34" s="35"/>
+      <c r="M34" s="35"/>
+      <c r="N34" s="35"/>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
         <v>27</v>
       </c>
       <c r="B35" s="7"/>
-      <c r="C35" s="36"/>
-      <c r="D35" s="36"/>
-      <c r="E35" s="37">
+      <c r="C35" s="35"/>
+      <c r="D35" s="35"/>
+      <c r="E35" s="36">
         <v>43882</v>
       </c>
-      <c r="F35" s="36"/>
-      <c r="G35" s="36"/>
-      <c r="H35" s="36"/>
-      <c r="I35" s="36"/>
-      <c r="J35" s="36"/>
-      <c r="K35" s="36"/>
-      <c r="L35" s="36"/>
-      <c r="M35" s="36"/>
-      <c r="N35" s="36"/>
+      <c r="F35" s="35"/>
+      <c r="G35" s="35"/>
+      <c r="H35" s="35"/>
+      <c r="I35" s="35"/>
+      <c r="J35" s="35"/>
+      <c r="K35" s="35"/>
+      <c r="L35" s="35"/>
+      <c r="M35" s="35"/>
+      <c r="N35" s="35"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
         <v>28</v>
       </c>
       <c r="B36" s="7"/>
-      <c r="C36" s="36"/>
-      <c r="D36" s="36"/>
-      <c r="E36" s="36"/>
-      <c r="F36" s="36"/>
-      <c r="G36" s="36"/>
-      <c r="H36" s="36"/>
-      <c r="I36" s="38">
+      <c r="C36" s="35"/>
+      <c r="D36" s="35"/>
+      <c r="E36" s="35"/>
+      <c r="F36" s="35"/>
+      <c r="G36" s="35"/>
+      <c r="H36" s="35"/>
+      <c r="I36" s="37">
         <v>43910</v>
       </c>
-      <c r="J36" s="36"/>
-      <c r="K36" s="36"/>
-      <c r="L36" s="36"/>
-      <c r="M36" s="36"/>
-      <c r="N36" s="36"/>
+      <c r="J36" s="35"/>
+      <c r="K36" s="35"/>
+      <c r="L36" s="35"/>
+      <c r="M36" s="35"/>
+      <c r="N36" s="35"/>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
         <v>29</v>
       </c>
       <c r="B37" s="7"/>
-      <c r="C37" s="36"/>
-      <c r="D37" s="36"/>
-      <c r="E37" s="36"/>
-      <c r="F37" s="36"/>
-      <c r="G37" s="36"/>
-      <c r="H37" s="36"/>
-      <c r="I37" s="36"/>
-      <c r="J37" s="36"/>
-      <c r="K37" s="36"/>
-      <c r="L37" s="38">
+      <c r="C37" s="35"/>
+      <c r="D37" s="35"/>
+      <c r="E37" s="35"/>
+      <c r="F37" s="35"/>
+      <c r="G37" s="35"/>
+      <c r="H37" s="35"/>
+      <c r="I37" s="35"/>
+      <c r="J37" s="35"/>
+      <c r="K37" s="35"/>
+      <c r="L37" s="37">
         <v>43931</v>
       </c>
-      <c r="M37" s="36"/>
-      <c r="N37" s="36"/>
+      <c r="M37" s="35"/>
+      <c r="N37" s="35"/>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
@@ -1731,7 +1738,7 @@
       <c r="E40" s="11"/>
       <c r="F40" s="5"/>
       <c r="G40" s="5"/>
-      <c r="H40" s="39">
+      <c r="H40" s="38">
         <v>43903</v>
       </c>
       <c r="I40" s="5"/>
@@ -1750,18 +1757,18 @@
       <c r="D41" s="21">
         <v>43875</v>
       </c>
-      <c r="E41" s="33"/>
+      <c r="E41" s="32"/>
       <c r="F41" s="20">
         <v>43889</v>
       </c>
       <c r="G41" s="5"/>
-      <c r="H41" s="32">
+      <c r="H41" s="31">
         <v>43903</v>
       </c>
       <c r="I41" s="20">
         <v>43910</v>
       </c>
-      <c r="J41" s="33"/>
+      <c r="J41" s="32"/>
       <c r="K41" s="20">
         <v>43924</v>
       </c>
@@ -1805,7 +1812,7 @@
       <c r="I43" s="5"/>
       <c r="J43" s="5"/>
       <c r="K43" s="5"/>
-      <c r="L43" s="32">
+      <c r="L43" s="31">
         <v>43931</v>
       </c>
       <c r="M43" s="5"/>
@@ -1825,7 +1832,7 @@
       <c r="I44" s="5"/>
       <c r="J44" s="5"/>
       <c r="K44" s="5"/>
-      <c r="L44" s="32">
+      <c r="L44" s="31">
         <v>43931</v>
       </c>
       <c r="M44" s="5"/>
@@ -1924,7 +1931,9 @@
       <c r="H49" s="5"/>
       <c r="I49" s="5"/>
       <c r="J49" s="5"/>
-      <c r="K49" s="5"/>
+      <c r="K49" s="21">
+        <v>43924</v>
+      </c>
       <c r="L49" s="19"/>
       <c r="M49" s="5"/>
       <c r="N49" s="5"/>
@@ -1942,7 +1951,9 @@
       <c r="H50" s="5"/>
       <c r="I50" s="5"/>
       <c r="J50" s="5"/>
-      <c r="K50" s="5"/>
+      <c r="K50" s="20">
+        <v>43924</v>
+      </c>
       <c r="L50" s="19"/>
       <c r="M50" s="5"/>
       <c r="N50" s="5"/>
@@ -2088,6 +2099,6 @@
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup scale="57" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
--- a/ProjectPlan.xlsx
+++ b/ProjectPlan.xlsx
@@ -8,15 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CAPSTONE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E8B1F03-96E1-4E7E-A199-39A1F109F929}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93BF49DB-E9B0-4417-A54F-87B01DB5BE41}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4680" yWindow="1905" windowWidth="21600" windowHeight="11385" xr2:uid="{1A627384-B3A2-4E78-84FE-BA87618B40F6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1A627384-B3A2-4E78-84FE-BA87618B40F6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -867,8 +866,8 @@
   </sheetPr>
   <dimension ref="A1:N57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="J46" sqref="J46"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1466,12 +1465,8 @@
       <c r="K27" s="31">
         <v>43924</v>
       </c>
-      <c r="L27" s="20">
-        <v>43931</v>
-      </c>
-      <c r="M27" s="21">
-        <v>43938</v>
-      </c>
+      <c r="L27" s="32"/>
+      <c r="M27" s="32"/>
       <c r="N27" s="5"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
@@ -1502,12 +1497,8 @@
       <c r="K28" s="21">
         <v>43924</v>
       </c>
-      <c r="L28" s="31">
-        <v>43931</v>
-      </c>
-      <c r="M28" s="20">
-        <v>43938</v>
-      </c>
+      <c r="L28" s="32"/>
+      <c r="M28" s="32"/>
       <c r="N28" s="5"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
